--- a/biology/Botanique/Thermopériodisme/Thermopériodisme.xlsx
+++ b/biology/Botanique/Thermopériodisme/Thermopériodisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Thermop%C3%A9riodisme</t>
+          <t>Thermopériodisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thermopériodisme est l'influence des changements de température sur la vie des végétaux. Suivant sa période de croissance, la plante aura en effet besoin de températures basses et de températures hautes pour croître. Par exemple le chou commun (Brassica oleracea) aura une mise en fleur par exposition à des températures basses.
  Portail de la botanique                     </t>
